--- a/tables/table5_krasnodar-reservoir-sediment-budget.xlsx
+++ b/tables/table5_krasnodar-reservoir-sediment-budget.xlsx
@@ -1,71 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\nth-west-caucasus-sediments\tables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1CD9B3-DDE2-4D28-AFB4-D7B15CF60E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Shore</t>
-  </si>
-  <si>
-    <t>FluxSS</t>
-  </si>
-  <si>
-    <t>FluxBS</t>
-  </si>
-  <si>
-    <t>FluxTot</t>
-  </si>
-  <si>
-    <t>VolSS</t>
-  </si>
-  <si>
-    <t>VolBS</t>
-  </si>
-  <si>
-    <t>VolS</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>2005-2016</t>
-  </si>
-  <si>
-    <t>2016-2021</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,34 +52,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -201,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -236,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,50 +350,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Period</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Shore</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FluxSS</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>FluxBS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>FluxTot</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2005-2016</t>
+        </is>
       </c>
       <c r="B2">
         <v>83</v>
@@ -463,58 +416,54 @@
       <c r="C2">
         <v>0.79</v>
       </c>
-      <c r="D2" s="3">
-        <v>66.768658560691549</v>
-      </c>
-      <c r="E2" s="3">
-        <v>14.409107211599901</v>
-      </c>
-      <c r="F2" s="3">
-        <v>81.177765772291451</v>
-      </c>
-      <c r="G2" s="3">
-        <v>69.550686000720361</v>
-      </c>
-      <c r="H2" s="2">
-        <v>8.4759454185881786</v>
-      </c>
-      <c r="I2" s="3">
-        <v>78.81663141930855</v>
-      </c>
-      <c r="J2" s="2">
-        <v>-5.0402031092668071</v>
+      <c r="D2">
+        <v>61.86945050386963</v>
+      </c>
+      <c r="E2">
+        <v>14.96056891862193</v>
+      </c>
+      <c r="F2">
+        <v>76.83001942249156</v>
+      </c>
+      <c r="G2">
+        <v>78.17301942249156</v>
+      </c>
+      <c r="H2">
+        <v>79.67999999999999</v>
+      </c>
+      <c r="I2">
+        <v>-1.891290885427245</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2016-2021</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>24.66</v>
       </c>
       <c r="C3">
         <v>0.22</v>
       </c>
-      <c r="D3" s="3">
-        <v>21.14820978953038</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5.0093878279399391</v>
-      </c>
-      <c r="F3" s="3">
-        <v>26.157597617470319</v>
-      </c>
-      <c r="G3" s="3">
-        <v>22.02938519742748</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2.9466987223176111</v>
-      </c>
-      <c r="I3" s="3">
-        <v>25.196083919745089</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2.1739007288933032</v>
+      <c r="D3">
+        <v>18.78060435968911</v>
+      </c>
+      <c r="E3">
+        <v>5.010702644086642</v>
+      </c>
+      <c r="F3">
+        <v>23.79130700377576</v>
+      </c>
+      <c r="G3">
+        <v>24.16530700377576</v>
+      </c>
+      <c r="H3">
+        <v>23.6736</v>
+      </c>
+      <c r="I3">
+        <v>2.077026746146571</v>
       </c>
     </row>
   </sheetData>
